--- a/api/data/cases.xlsx
+++ b/api/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="12630" activeTab="5"/>
+    <workbookView windowWidth="28680" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -398,8 +398,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -443,27 +443,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -477,27 +464,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -509,15 +476,22 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -535,6 +509,32 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -545,7 +545,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,67 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,13 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,6 +704,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -714,6 +729,15 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,53 +759,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +780,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -814,139 +814,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,34 +1014,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="输入" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
+    <cellStyle name="差" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="警告文本" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
+    <cellStyle name="标题 3" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
+    <cellStyle name="输出" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="链接单元格" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
+    <cellStyle name="强调文字颜色 1" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1390,8 +1390,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1566,48 +1566,48 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1774,41 +1774,41 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1821,8 +1821,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2042,62 +2042,62 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2285,20 +2285,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2526,7 +2526,7 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2722,34 +2722,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/api/data/cases.xlsx
+++ b/api/data/cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>case_id</t>
   </si>
@@ -140,13 +140,16 @@
     <t>前提登录成功</t>
   </si>
   <si>
+    <t>{'mobilephone':'%recharge_cell%','pwd':'%recharge_pwd%'}</t>
+  </si>
+  <si>
     <t>充值成功</t>
   </si>
   <si>
     <t>/member/recharge</t>
   </si>
   <si>
-    <t>{'mobilephone':'%register_cell%','amount':'100'}</t>
+    <t>{'mobilephone':'%recharge_cell%','amount':'100'}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":{"id":278,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18106573747","leaveamount":"200.00","type":"1","regtime":"2019-04-10 21:27:26.0"},"msg":"充值成功"}</t>
@@ -278,25 +281,6 @@
 "msg": "加标成功"}</t>
   </si>
   <si>
-    <t>借款金额小于1000</t>
-  </si>
-  <si>
-    <t>{'memberId':1082,
-'title':'we',
-'amount':200.00,
-'loanRate':18.0,
-'loanTerm':6,
-'loanDateType':0,
-'repaymemtWay':5,
-'biddingDays':10}</t>
-  </si>
-  <si>
-    <t>{"status": 0,
-"code": "20106",
-"data": None,
-"msg": "加标成功"}</t>
-  </si>
-  <si>
     <t>审核中</t>
   </si>
   <si>
@@ -398,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -437,6 +421,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -444,7 +463,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -456,13 +475,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
@@ -483,36 +495,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -545,19 +529,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,25 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,19 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,16 +688,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,25 +736,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,7 +798,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -823,130 +807,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,34 +998,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
+    <cellStyle name="警告文本" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1390,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1566,48 +1550,42 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1621,7 +1599,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1774,41 +1752,36 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1821,8 +1794,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1878,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>37</v>
@@ -1891,19 +1864,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1913,19 +1886,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1935,19 +1908,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1957,19 +1930,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1979,19 +1952,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -2001,19 +1974,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2023,81 +1996,73 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2108,13 +2073,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
@@ -2156,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
@@ -2165,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>27</v>
@@ -2178,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -2187,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>37</v>
@@ -2200,19 +2165,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2222,19 +2187,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2244,61 +2209,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" ht="108" customHeight="1" spans="1:8">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2311,8 +2252,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2356,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -2365,32 +2306,32 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2400,19 +2341,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2422,19 +2363,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2444,19 +2385,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2466,19 +2407,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2488,26 +2429,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
@@ -2526,7 +2466,7 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2571,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>9</v>
@@ -2580,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>27</v>
@@ -2593,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>9</v>
@@ -2602,7 +2542,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>27</v>
@@ -2615,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -2624,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>27</v>
@@ -2637,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -2646,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>37</v>
@@ -2659,19 +2599,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2681,19 +2621,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2703,53 +2643,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2773,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -2782,16 +2718,16 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/api/data/cases.xlsx
+++ b/api/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="12630"/>
+    <workbookView windowWidth="28680" windowHeight="12630" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -383,9 +383,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -421,16 +421,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -442,28 +434,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -475,6 +466,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
@@ -488,15 +487,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -508,14 +500,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -529,13 +529,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,25 +595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,43 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,21 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -726,26 +711,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,15 +752,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -784,6 +760,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,7 +798,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -807,22 +807,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -831,106 +831,106 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,34 +998,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="输入" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
+    <cellStyle name="差" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="警告文本" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
+    <cellStyle name="标题 3" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
+    <cellStyle name="输出" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="链接单元格" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
+    <cellStyle name="强调文字颜色 1" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1374,7 +1374,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
@@ -1550,42 +1550,42 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
     <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1598,7 +1598,7 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
@@ -1752,36 +1752,36 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2015,54 +2015,54 @@
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
+    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
     <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C9" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C8" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C7" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C6" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C4" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/recharge"/>
-    <hyperlink ref="C2" r:id="rId1" display="/member/login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2076,7 +2076,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -2228,18 +2228,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId2" display="/member/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2466,7 +2466,7 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2662,30 +2662,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C5" r:id="rId1" display="/member/login"/>
-    <hyperlink ref="C4" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C3" r:id="rId2" display="/member/register"/>
-    <hyperlink ref="C2" r:id="rId2" display="/member/register"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
+    <hyperlink ref="C2" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C3" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C4" r:id="rId1" display="/member/register"/>
+    <hyperlink ref="C5" r:id="rId2" display="/member/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
